--- a/KPN_M4_summary_Hospital_x_WardEDICU_merged_allabx.xlsx
+++ b/KPN_M4_summary_Hospital_x_WardEDICU_merged_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6195,6 +6195,570 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>4.973137893762494e-116</v>
+      </c>
+      <c r="C202">
+        <v>22.91115374961466</v>
+      </c>
+      <c r="D202">
+        <v>-11.58805980183081</v>
+      </c>
+      <c r="E202">
+        <v>4.737422236229271e-31</v>
+      </c>
+      <c r="F202">
+        <v>1.435448979988836e-135</v>
+      </c>
+      <c r="G202">
+        <v>1.464009066951592e-96</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>1.140946738498609</v>
+      </c>
+      <c r="C203">
+        <v>0.01135736599391953</v>
+      </c>
+      <c r="D203">
+        <v>11.60994461152569</v>
+      </c>
+      <c r="E203">
+        <v>3.668531608164512e-31</v>
+      </c>
+      <c r="F203">
+        <v>1.115872250963904</v>
+      </c>
+      <c r="G203">
+        <v>1.166679442374917</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Specimen_typeother</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>0.8461702789920515</v>
+      </c>
+      <c r="C204">
+        <v>0.09756391046152789</v>
+      </c>
+      <c r="D204">
+        <v>-1.712053805906441</v>
+      </c>
+      <c r="E204">
+        <v>0.08688675321192382</v>
+      </c>
+      <c r="F204">
+        <v>0.6987173047850542</v>
+      </c>
+      <c r="G204">
+        <v>1.024296154700074</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Specimen_typeRespiratory</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>0.5761503972320655</v>
+      </c>
+      <c r="C205">
+        <v>0.10150406254931</v>
+      </c>
+      <c r="D205">
+        <v>-5.432162341236693</v>
+      </c>
+      <c r="E205">
+        <v>5.567523586273713e-08</v>
+      </c>
+      <c r="F205">
+        <v>0.4719276926138439</v>
+      </c>
+      <c r="G205">
+        <v>0.7026080629646728</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Specimen_typeUrine</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>0.5411927767328973</v>
+      </c>
+      <c r="C206">
+        <v>0.07848801358758777</v>
+      </c>
+      <c r="D206">
+        <v>-7.822592284750599</v>
+      </c>
+      <c r="E206">
+        <v>5.174649281704904e-15</v>
+      </c>
+      <c r="F206">
+        <v>0.4640904728348101</v>
+      </c>
+      <c r="G206">
+        <v>0.6313126397698415</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Specimen_typeWound &amp; soft tissues</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>0.9277326279276334</v>
+      </c>
+      <c r="C207">
+        <v>0.08852634521799822</v>
+      </c>
+      <c r="D207">
+        <v>-0.8473376369715753</v>
+      </c>
+      <c r="E207">
+        <v>0.3968069539696141</v>
+      </c>
+      <c r="F207">
+        <v>0.7799152046028212</v>
+      </c>
+      <c r="G207">
+        <v>1.103513528417497</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>HospitalCHBH</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>0.2361244119590601</v>
+      </c>
+      <c r="C208">
+        <v>0.2180553316314181</v>
+      </c>
+      <c r="D208">
+        <v>-6.619404500428351</v>
+      </c>
+      <c r="E208">
+        <v>3.606487429587598e-11</v>
+      </c>
+      <c r="F208">
+        <v>0.1531521194390464</v>
+      </c>
+      <c r="G208">
+        <v>0.3603607512938581</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>0.7560454158769172</v>
+      </c>
+      <c r="C209">
+        <v>0.4565262054970577</v>
+      </c>
+      <c r="D209">
+        <v>-0.612569064663486</v>
+      </c>
+      <c r="E209">
+        <v>0.5401613183668608</v>
+      </c>
+      <c r="F209">
+        <v>0.3028431187533294</v>
+      </c>
+      <c r="G209">
+        <v>1.851048722156757</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>HospitalRabta</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>1.827064742148086</v>
+      </c>
+      <c r="C210">
+        <v>0.1831295329717927</v>
+      </c>
+      <c r="D210">
+        <v>3.291171572944333</v>
+      </c>
+      <c r="E210">
+        <v>0.0009977104181039741</v>
+      </c>
+      <c r="F210">
+        <v>1.275908334665787</v>
+      </c>
+      <c r="G210">
+        <v>2.617062211604711</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>HospitalTCB</t>
+        </is>
+      </c>
+      <c r="B211">
+        <v>0.7032866023923675</v>
+      </c>
+      <c r="C211">
+        <v>0.1627257239024766</v>
+      </c>
+      <c r="D211">
+        <v>-2.163092454236802</v>
+      </c>
+      <c r="E211">
+        <v>0.03053406936240863</v>
+      </c>
+      <c r="F211">
+        <v>0.5104589954785741</v>
+      </c>
+      <c r="G211">
+        <v>0.9665934430742568</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>0.1777510440476676</v>
+      </c>
+      <c r="C212">
+        <v>0.2257028950393169</v>
+      </c>
+      <c r="D212">
+        <v>-7.653297208833935</v>
+      </c>
+      <c r="E212">
+        <v>1.958904520756977e-14</v>
+      </c>
+      <c r="F212">
+        <v>0.1133837245093725</v>
+      </c>
+      <c r="G212">
+        <v>0.274943485114469</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>0.2434847467182416</v>
+      </c>
+      <c r="C213">
+        <v>0.1580536060162385</v>
+      </c>
+      <c r="D213">
+        <v>-8.938112934232164</v>
+      </c>
+      <c r="E213">
+        <v>3.958723971324885e-19</v>
+      </c>
+      <c r="F213">
+        <v>0.1783133827609263</v>
+      </c>
+      <c r="G213">
+        <v>0.331537146185214</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>3.315452634775907</v>
+      </c>
+      <c r="C214">
+        <v>0.4154416661812452</v>
+      </c>
+      <c r="D214">
+        <v>2.885108195200897</v>
+      </c>
+      <c r="E214">
+        <v>0.003912791641065692</v>
+      </c>
+      <c r="F214">
+        <v>1.430144717484845</v>
+      </c>
+      <c r="G214">
+        <v>7.348941456002666</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>HospitalRabta:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>HospitalTCB:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>1.285038299948908</v>
+      </c>
+      <c r="C217">
+        <v>0.5256449444640776</v>
+      </c>
+      <c r="D217">
+        <v>0.4771063166343456</v>
+      </c>
+      <c r="E217">
+        <v>0.6332864169154406</v>
+      </c>
+      <c r="F217">
+        <v>0.4259939490975391</v>
+      </c>
+      <c r="G217">
+        <v>3.442081942971508</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>3.481924044116067</v>
+      </c>
+      <c r="C218">
+        <v>0.2413271077402592</v>
+      </c>
+      <c r="D218">
+        <v>5.169684578427574</v>
+      </c>
+      <c r="E218">
+        <v>2.344894330308487e-07</v>
+      </c>
+      <c r="F218">
+        <v>2.177119628438133</v>
+      </c>
+      <c r="G218">
+        <v>5.611068249551265</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>3.964478548993912</v>
+      </c>
+      <c r="C219">
+        <v>0.497219382080847</v>
+      </c>
+      <c r="D219">
+        <v>2.77015414640372</v>
+      </c>
+      <c r="E219">
+        <v>0.005602976910376392</v>
+      </c>
+      <c r="F219">
+        <v>1.495851443367732</v>
+      </c>
+      <c r="G219">
+        <v>10.6768159769677</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>HospitalRabta:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>1.342512881943767</v>
+      </c>
+      <c r="C220">
+        <v>0.1952084977272594</v>
+      </c>
+      <c r="D220">
+        <v>1.508864349006028</v>
+      </c>
+      <c r="E220">
+        <v>0.1313334521284583</v>
+      </c>
+      <c r="F220">
+        <v>0.9155959620652931</v>
+      </c>
+      <c r="G220">
+        <v>1.968887533491604</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>HospitalTCB:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>3.440137586009126</v>
+      </c>
+      <c r="C221">
+        <v>0.1840665835476588</v>
+      </c>
+      <c r="D221">
+        <v>6.712307267866879</v>
+      </c>
+      <c r="E221">
+        <v>1.915707510172705e-11</v>
+      </c>
+      <c r="F221">
+        <v>2.399947359547067</v>
+      </c>
+      <c r="G221">
+        <v>4.940186492584962</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
